--- a/uploads/eo_models.xlsx
+++ b/uploads/eo_models.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Desktop\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -36,6 +36,9 @@
     <t>Автогрейдер 160AWD</t>
   </si>
   <si>
+    <t>Автогрейдеры</t>
+  </si>
+  <si>
     <t>Автогрейдер 160M</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
     <t>Бульдозер гусеничный D275A-5D</t>
   </si>
   <si>
+    <t>Бульдозеры гусеничные</t>
+  </si>
+  <si>
     <t>Бульдозер гусеничный D375A-5D</t>
   </si>
   <si>
@@ -81,6 +87,9 @@
     <t>Бульдозер К-702МБА</t>
   </si>
   <si>
+    <t>Бульдозеры колесные</t>
+  </si>
+  <si>
     <t>Бульдозер К-703МА</t>
   </si>
   <si>
@@ -123,27 +132,15 @@
     <t>Бульдозер D9R</t>
   </si>
   <si>
-    <t>Бульдозер WD600-10</t>
-  </si>
-  <si>
     <t>Бульдозер WD600-3</t>
   </si>
   <si>
-    <t>Бульдозер WD600-6</t>
-  </si>
-  <si>
-    <t>Бульдозер WD600-7</t>
-  </si>
-  <si>
-    <t>Бульдозер WD600-8</t>
-  </si>
-  <si>
-    <t>Бульдозер WD600-9</t>
-  </si>
-  <si>
     <t>Машина многоцел МКСМ</t>
   </si>
   <si>
+    <t>Погрузчики фронтальные</t>
+  </si>
+  <si>
     <t>Погрузчик фронтальный 966H</t>
   </si>
   <si>
@@ -267,15 +264,15 @@
     <t>Станки буровые DE810</t>
   </si>
   <si>
+    <t>Буровые станки среднего класса</t>
+  </si>
+  <si>
     <t>Станки буровые DML LP</t>
   </si>
   <si>
     <t>Станки буровые PV-235</t>
   </si>
   <si>
-    <t>Буровые станки среднего класса</t>
-  </si>
-  <si>
     <t>Станки буровые PV-351</t>
   </si>
   <si>
@@ -486,7 +483,10 @@
     <t>Экскаватор гидравл CAT395</t>
   </si>
   <si>
-    <t>Гусеничные бульдозеры в классе мощности 350-450 kW</t>
+    <t xml:space="preserve">Станок буровой MD6250 </t>
+  </si>
+  <si>
+    <t>Буровые станки тяжелого класса</t>
   </si>
 </sst>
 </file>
@@ -851,15 +851,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -886,6 +887,9 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -895,6 +899,9 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -906,7 +913,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -917,7 +927,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,7 +941,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,7 +955,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -950,7 +969,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -961,7 +983,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -972,7 +997,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,7 +1011,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -994,7 +1025,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,10 +1039,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,10 +1053,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
         <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,7 +1067,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1044,10 +1081,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1055,10 +1095,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1066,10 +1109,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1077,10 +1123,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1088,10 +1137,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1099,10 +1151,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1110,10 +1165,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1121,10 +1179,13 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1132,10 +1193,13 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1143,10 +1207,13 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1154,10 +1221,13 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1165,10 +1235,13 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1176,10 +1249,13 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1187,10 +1263,13 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1198,10 +1277,13 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1209,1299 +1291,1400 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>32</v>
-      </c>
       <c r="C32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="D52" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" t="s">
         <v>57</v>
-      </c>
-      <c r="B58">
-        <v>63</v>
-      </c>
-      <c r="C58" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B61">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" t="s">
         <v>66</v>
-      </c>
-      <c r="C61" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" t="s">
         <v>63</v>
-      </c>
-      <c r="B64">
-        <v>69</v>
-      </c>
-      <c r="C64" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="D70" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="D73" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="D75" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="D76" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="D77" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="D78" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="D79" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="D80" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="D82" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="D83" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="D84" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="D85" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="D86" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C87" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="D87" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="D88" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D89" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="D90" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="D91" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="D92" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="D93" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="D94" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="D95" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="D96" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D97" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C98" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D100" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D101" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B102">
+        <v>112</v>
+      </c>
+      <c r="C102" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" t="s">
         <v>107</v>
-      </c>
-      <c r="C102" t="s">
-        <v>114</v>
-      </c>
-      <c r="D102" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D104" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B105">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D105" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B106">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C106" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D106" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B107">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D107" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B108">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C108" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D108" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B109">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C109" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D109" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B110">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C110" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D110" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B111">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C111" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D111" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B112">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C112" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D112" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B113">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C113" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D113" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B114">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C114" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B115">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C115" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D115" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B116">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C116" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D116" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B117">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C117" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D117" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B118">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C118" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D118" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B119">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C119" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D119" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B120">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C120" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D120" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B121">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C121" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D121" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B122">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C122" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D122" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B123">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D123" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B124">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C124" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D124" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B125">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C125" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="D125" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B126">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C126" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="D126" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B127">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C127" t="s">
-        <v>145</v>
+        <v>151</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B128">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C128" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="D128" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B129">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C129" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D129" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>129</v>
-      </c>
       <c r="B130">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C130" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D130" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131">
-        <v>136</v>
-      </c>
-      <c r="C131" t="s">
-        <v>150</v>
-      </c>
-      <c r="D131" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132">
-        <v>137</v>
-      </c>
-      <c r="C132" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133">
-        <v>138</v>
-      </c>
-      <c r="C133" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>137</v>
-      </c>
-      <c r="B134">
-        <v>143</v>
-      </c>
-      <c r="C134" t="s">
-        <v>154</v>
-      </c>
-      <c r="D134" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId1"/>
+    <customPr name="_pios_id" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>
--- a/uploads/eo_models.xlsx
+++ b/uploads/eo_models.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23640" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="155">
   <si>
     <t>id</t>
   </si>
@@ -258,15 +258,12 @@
     <t>Станки буровые СБШ-250</t>
   </si>
   <si>
-    <t>Буровые станки станки тяжелого класса</t>
+    <t>Буровые станки</t>
   </si>
   <si>
     <t>Станки буровые DE810</t>
   </si>
   <si>
-    <t>Буровые станки среднего класса</t>
-  </si>
-  <si>
     <t>Станки буровые DML LP</t>
   </si>
   <si>
@@ -486,7 +483,7 @@
     <t xml:space="preserve">Станок буровой MD6250 </t>
   </si>
   <si>
-    <t>Буровые станки тяжелого класса</t>
+    <t>Самосвалы NTE240</t>
   </si>
 </sst>
 </file>
@@ -851,16 +848,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1798,7 +1795,7 @@
         <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,10 +1806,10 @@
         <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1823,10 +1820,10 @@
         <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1837,10 +1834,10 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1851,10 +1848,10 @@
         <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1865,10 +1862,10 @@
         <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1879,10 +1876,10 @@
         <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1893,10 +1890,10 @@
         <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1907,10 +1904,10 @@
         <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1921,10 +1918,10 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1935,10 +1932,10 @@
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1949,10 +1946,10 @@
         <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,10 +1960,10 @@
         <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1977,10 +1974,10 @@
         <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1991,10 +1988,10 @@
         <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2005,10 +2002,10 @@
         <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2019,10 +2016,10 @@
         <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2033,10 +2030,10 @@
         <v>94</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2047,10 +2044,10 @@
         <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D85" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2061,10 +2058,10 @@
         <v>96</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2075,10 +2072,10 @@
         <v>97</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2089,10 +2086,10 @@
         <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2103,10 +2100,10 @@
         <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2117,10 +2114,10 @@
         <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2131,10 +2128,10 @@
         <v>101</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2145,10 +2142,10 @@
         <v>102</v>
       </c>
       <c r="C92" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92" t="s">
         <v>106</v>
-      </c>
-      <c r="D92" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2159,10 +2156,10 @@
         <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2173,10 +2170,10 @@
         <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2187,10 +2184,10 @@
         <v>105</v>
       </c>
       <c r="C95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2201,10 +2198,10 @@
         <v>106</v>
       </c>
       <c r="C96" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" t="s">
         <v>111</v>
-      </c>
-      <c r="D96" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2215,10 +2212,10 @@
         <v>107</v>
       </c>
       <c r="C97" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" t="s">
         <v>113</v>
-      </c>
-      <c r="D97" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2229,10 +2226,10 @@
         <v>108</v>
       </c>
       <c r="C98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2243,10 +2240,10 @@
         <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2257,10 +2254,10 @@
         <v>110</v>
       </c>
       <c r="C100" t="s">
+        <v>116</v>
+      </c>
+      <c r="D100" t="s">
         <v>117</v>
-      </c>
-      <c r="D100" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2271,10 +2268,10 @@
         <v>111</v>
       </c>
       <c r="C101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2285,10 +2282,10 @@
         <v>112</v>
       </c>
       <c r="C102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2299,10 +2296,10 @@
         <v>113</v>
       </c>
       <c r="C103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2313,10 +2310,10 @@
         <v>114</v>
       </c>
       <c r="C104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D104" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2327,10 +2324,10 @@
         <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2341,10 +2338,10 @@
         <v>116</v>
       </c>
       <c r="C106" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106" t="s">
         <v>124</v>
-      </c>
-      <c r="D106" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2355,10 +2352,10 @@
         <v>117</v>
       </c>
       <c r="C107" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" t="s">
         <v>126</v>
-      </c>
-      <c r="D107" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2369,10 +2366,10 @@
         <v>118</v>
       </c>
       <c r="C108" t="s">
+        <v>127</v>
+      </c>
+      <c r="D108" t="s">
         <v>128</v>
-      </c>
-      <c r="D108" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2383,10 +2380,10 @@
         <v>119</v>
       </c>
       <c r="C109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D109" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2397,10 +2394,10 @@
         <v>120</v>
       </c>
       <c r="C110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2411,10 +2408,10 @@
         <v>121</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2425,10 +2422,10 @@
         <v>122</v>
       </c>
       <c r="C112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2439,10 +2436,10 @@
         <v>123</v>
       </c>
       <c r="C113" t="s">
+        <v>133</v>
+      </c>
+      <c r="D113" t="s">
         <v>134</v>
-      </c>
-      <c r="D113" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2453,10 +2450,10 @@
         <v>124</v>
       </c>
       <c r="C114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2467,10 +2464,10 @@
         <v>125</v>
       </c>
       <c r="C115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2481,10 +2478,10 @@
         <v>126</v>
       </c>
       <c r="C116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2495,7 +2492,7 @@
         <v>127</v>
       </c>
       <c r="C117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D117" t="s">
         <v>63</v>
@@ -2509,7 +2506,7 @@
         <v>128</v>
       </c>
       <c r="C118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D118" t="s">
         <v>61</v>
@@ -2523,7 +2520,7 @@
         <v>129</v>
       </c>
       <c r="C119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D119" t="s">
         <v>61</v>
@@ -2537,7 +2534,7 @@
         <v>130</v>
       </c>
       <c r="C120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D120" t="s">
         <v>16</v>
@@ -2551,7 +2548,7 @@
         <v>131</v>
       </c>
       <c r="C121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D121" t="s">
         <v>22</v>
@@ -2565,7 +2562,7 @@
         <v>132</v>
       </c>
       <c r="C122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D122" t="s">
         <v>79</v>
@@ -2579,7 +2576,7 @@
         <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D123" t="s">
         <v>79</v>
@@ -2593,10 +2590,10 @@
         <v>134</v>
       </c>
       <c r="C124" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2607,10 +2604,10 @@
         <v>135</v>
       </c>
       <c r="C125" t="s">
+        <v>146</v>
+      </c>
+      <c r="D125" t="s">
         <v>147</v>
-      </c>
-      <c r="D125" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,10 +2618,10 @@
         <v>136</v>
       </c>
       <c r="C126" t="s">
+        <v>148</v>
+      </c>
+      <c r="D126" t="s">
         <v>149</v>
-      </c>
-      <c r="D126" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2635,7 +2632,7 @@
         <v>137</v>
       </c>
       <c r="C127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D127" t="s">
         <v>16</v>
@@ -2649,7 +2646,7 @@
         <v>138</v>
       </c>
       <c r="C128" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D128" t="s">
         <v>79</v>
@@ -2663,28 +2660,39 @@
         <v>143</v>
       </c>
       <c r="C129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D129" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>138</v>
+      </c>
       <c r="B130">
         <v>144</v>
       </c>
       <c r="C130" t="s">
+        <v>153</v>
+      </c>
+      <c r="D130" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>145</v>
+      </c>
+      <c r="C131" t="s">
         <v>154</v>
       </c>
-      <c r="D130" t="s">
-        <v>155</v>
+      <c r="D131" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <customProperties>
-    <customPr name="_pios_id" r:id="rId2"/>
-  </customProperties>
 </worksheet>
 </file>